--- a/exampleProblems/ch9_069/ch9_069.xlsx
+++ b/exampleProblems/ch9_069/ch9_069.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/development/exampleProblems/ch9_069/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_069/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{846A1979-93D2-D643-ABB5-78846E6F24CA}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B342B7-C751-470E-B3D7-3E513894340A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -144,15 +144,6 @@
     <t>8,7</t>
   </si>
   <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>8,7,6</t>
-  </si>
-  <si>
     <t>A (dd)</t>
   </si>
   <si>
@@ -172,13 +163,25 @@
   </si>
   <si>
     <t>8.0,7.0,7.0,6.0</t>
+  </si>
+  <si>
+    <t>3,6,6</t>
+  </si>
+  <si>
+    <t>4,6,6</t>
+  </si>
+  <si>
+    <t>8,7,6,6</t>
+  </si>
+  <si>
+    <t>8,7,6, 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,17 +584,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,24 +611,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -652,12 +655,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>4.12</v>
@@ -681,12 +684,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>3.4</v>
@@ -704,18 +707,18 @@
         <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>3.32</v>
@@ -733,18 +736,18 @@
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>2.33</v>
@@ -762,18 +765,18 @@
         <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>2.0499999999999998</v>
@@ -791,18 +794,18 @@
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -820,13 +823,13 @@
         <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -836,7 +839,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -846,7 +849,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -870,9 +873,9 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -905,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -936,7 +939,7 @@
       <c r="J2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -967,7 +970,7 @@
       <c r="J3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -998,7 +1001,7 @@
       <c r="J4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1029,7 +1032,7 @@
       <c r="J5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1088,7 +1091,7 @@
       <c r="J7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1101,7 +1104,7 @@
       <c r="J8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1114,7 +1117,7 @@
       <c r="J9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1127,10 +1130,10 @@
       <c r="J10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
   </sheetData>
@@ -1147,9 +1150,9 @@
       <selection activeCell="J1" sqref="J1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1190,7 +1193,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1723,7 +1726,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1734,7 +1737,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1745,7 +1748,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1756,7 +1759,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1767,7 +1770,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1778,7 +1781,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1789,7 +1792,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1800,7 +1803,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1811,7 +1814,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1822,7 +1825,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1833,7 +1836,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1844,7 +1847,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1855,7 +1858,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1866,7 +1869,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1877,7 +1880,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1902,9 +1905,9 @@
       <selection activeCell="A45" sqref="A45:K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1947,7 +1950,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1977,7 +1980,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2007,7 +2010,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2097,7 +2100,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2127,7 +2130,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2157,7 +2160,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2187,7 +2190,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2277,7 +2280,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2337,7 +2340,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2457,7 +2460,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2487,7 +2490,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2559,7 +2562,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2571,7 +2574,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2583,7 +2586,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2595,7 +2598,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2607,7 +2610,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2619,7 +2622,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2631,7 +2634,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2643,7 +2646,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2655,7 +2658,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2667,7 +2670,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2679,7 +2682,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2691,7 +2694,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2703,7 +2706,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2715,7 +2718,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2727,7 +2730,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2739,7 +2742,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2751,7 +2754,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2763,7 +2766,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2789,9 +2792,9 @@
       <selection activeCell="I1" sqref="I1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2818,7 +2821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2890,7 +2893,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2914,7 +2917,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2938,7 +2941,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2948,7 +2951,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2958,7 +2961,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2968,7 +2971,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2988,13 +2991,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -3021,7 +3024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3069,7 +3072,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3093,7 +3096,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3141,7 +3144,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3165,7 +3168,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3175,7 +3178,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3191,12 +3194,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3417,15 +3417,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3450,18 +3462,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_069/ch9_069.xlsx
+++ b/exampleProblems/ch9_069/ch9_069.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_069/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B342B7-C751-470E-B3D7-3E513894340A}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED7F16B4-2599-4A21-8BBF-80E5EC2097DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="780" windowWidth="20295" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>3.37 .. 2.29</t>
   </si>
   <si>
-    <t>2.09 .. 2.01</t>
-  </si>
-  <si>
     <t>2.04 .. 1.96</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>8,7,6, 6</t>
+  </si>
+  <si>
+    <t>2.14 .. 2.06</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>4.12</v>
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>3.4</v>
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>3.32</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>2.33</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -776,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -791,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -805,13 +805,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -820,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
@@ -870,7 +870,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C6" s="1">
         <v>31.7</v>
@@ -1063,7 +1063,9 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1144,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,19 +1203,19 @@
         <v>4.12</v>
       </c>
       <c r="C2" s="1">
-        <v>4.12</v>
+        <v>2.33</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>6.29</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>27.7</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>24.96</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -1227,22 +1229,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3.4</v>
+        <v>4.12</v>
       </c>
       <c r="C3" s="1">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D3" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>5.74</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>40.520000000000003</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>49.97</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -1256,22 +1258,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.32</v>
+        <v>2.1</v>
       </c>
       <c r="C4" s="1">
-        <v>3.32</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>4.51</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>26.61</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>28.84</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -1288,19 +1290,19 @@
         <v>2.33</v>
       </c>
       <c r="C5" s="1">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>4.6399999999999997</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>16.96</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>4.3099999999999996</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -1314,22 +1316,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0499999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="D6" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>5.97</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>31.34</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>27.49</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
@@ -1339,381 +1341,92 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4.12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4.12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.12</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.32</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.32</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -1815,15 +1528,15 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1837,59 +1550,15 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1902,7 +1571,7 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:K50"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C15" s="1">
         <v>26.5</v>
@@ -2375,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C16" s="1">
         <v>177.5</v>
@@ -2992,7 +2661,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C6" s="1">
         <v>2.8</v>
@@ -3194,9 +2863,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3417,27 +3089,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3462,9 +3122,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_069/ch9_069.xlsx
+++ b/exampleProblems/ch9_069/ch9_069.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_069/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED7F16B4-2599-4A21-8BBF-80E5EC2097DC}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8A921B-EB94-4CD2-A995-401B0B6D0E07}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="780" windowWidth="20295" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>2.14 .. 2.06</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>O=C(O)C1CCCN1</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,17 +595,23 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2863,12 +2875,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3089,15 +3098,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3122,18 +3143,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_069/ch9_069.xlsx
+++ b/exampleProblems/ch9_069/ch9_069.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_069/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8A921B-EB94-4CD2-A995-401B0B6D0E07}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_5C82F8B84BF38A32E53BAE9E9CFAF2418A30F87F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D3171D-7A53-4084-A26F-2C9EFA6BE7FB}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -586,13 +587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +964,7 @@
         <v>48.8</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="1">
         <v>18.68</v>
@@ -993,7 +995,7 @@
         <v>48.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="1">
         <v>8.69</v>
@@ -1024,7 +1026,7 @@
         <v>31.7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" s="1">
         <v>17.059999999999999</v>
@@ -1085,7 +1087,7 @@
         <v>26.5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E7" s="1">
         <v>12</v>
@@ -1161,7 +1163,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,6 +2876,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CC73E-3D75-DE4D-A655-496404B38509}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2881,6 +2931,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3097,33 +3156,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3140,12 +3198,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>